--- a/data-portal-list.xlsx
+++ b/data-portal-list.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="576" windowWidth="30720" windowHeight="13524"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="30720" windowHeight="13524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="中央" sheetId="1" r:id="rId1"/>
     <sheet name="地方" sheetId="2" r:id="rId2"/>
+    <sheet name="dtid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="952">
   <si>
     <t>OID</t>
   </si>
@@ -1030,6 +1031,1857 @@
   </si>
   <si>
     <t>https://www.ncdr.nat.gov.tw/</t>
+  </si>
+  <si>
+    <t>國家安全會議</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 832</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 772</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 821</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 770</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 786</t>
+  </si>
+  <si>
+    <t>臺灣橋頭地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11598</t>
+  </si>
+  <si>
+    <t>臺灣南投地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 805</t>
+  </si>
+  <si>
+    <t>臺灣嘉義地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 766</t>
+  </si>
+  <si>
+    <t>臺灣基隆地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 793</t>
+  </si>
+  <si>
+    <t>臺灣士林地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 778</t>
+  </si>
+  <si>
+    <t>臺灣宜蘭地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 822</t>
+  </si>
+  <si>
+    <t>臺灣屏東地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 767</t>
+  </si>
+  <si>
+    <t>臺灣彰化地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 814</t>
+  </si>
+  <si>
+    <t>臺灣新北地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 835</t>
+  </si>
+  <si>
+    <t>臺灣新竹地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 759</t>
+  </si>
+  <si>
+    <t>臺灣桃園地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 775</t>
+  </si>
+  <si>
+    <t>臺灣澎湖地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 811</t>
+  </si>
+  <si>
+    <t>臺灣臺中地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 789</t>
+  </si>
+  <si>
+    <t>臺灣臺北地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 785</t>
+  </si>
+  <si>
+    <t>臺灣臺南地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 804</t>
+  </si>
+  <si>
+    <t>臺灣臺東地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 801</t>
+  </si>
+  <si>
+    <t>臺灣花蓮地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 782</t>
+  </si>
+  <si>
+    <t>臺灣苗栗地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 813</t>
+  </si>
+  <si>
+    <t>臺灣雲林地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 833</t>
+  </si>
+  <si>
+    <t>臺灣高等法院臺中分院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 795</t>
+  </si>
+  <si>
+    <t>臺灣高等法院臺南分院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 776</t>
+  </si>
+  <si>
+    <t>臺灣高等法院花蓮分院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 819</t>
+  </si>
+  <si>
+    <t>臺灣高等法院高雄分院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 768</t>
+  </si>
+  <si>
+    <t>臺灣高雄地方法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 816</t>
+  </si>
+  <si>
+    <t>臺灣高雄少年及家事法院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 691</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 797</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 723</t>
+  </si>
+  <si>
+    <t>國史館臺灣文獻館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 842</t>
+  </si>
+  <si>
+    <t>國家文官學院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 820</t>
+  </si>
+  <si>
+    <t>公務人員退休撫卹基金管理委員會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 781</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 491</t>
+  </si>
+  <si>
+    <t>行政院國家發展基金管理會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12162</t>
+  </si>
+  <si>
+    <t>國家發展委員會檔案管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 466</t>
+  </si>
+  <si>
+    <t>交通部臺灣鐵路管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6679</t>
+  </si>
+  <si>
+    <t>交通部公路總局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 475</t>
+  </si>
+  <si>
+    <t>交通部臺灣區國道新建工程局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 473</t>
+  </si>
+  <si>
+    <t>交通部臺灣區國道高速公路局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 467</t>
+  </si>
+  <si>
+    <t>交通部中央氣象局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 522</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 477</t>
+  </si>
+  <si>
+    <t>交通部航港局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 479</t>
+  </si>
+  <si>
+    <t>交通部觀光局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 470</t>
+  </si>
+  <si>
+    <t>交通部高速鐵路工程局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 474</t>
+  </si>
+  <si>
+    <t>交通部鐵路改建工程局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 471</t>
+  </si>
+  <si>
+    <t>交通部運輸研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 472</t>
+  </si>
+  <si>
+    <t>桃園國際機場股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 478</t>
+  </si>
+  <si>
+    <t>民用航空局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 468</t>
+  </si>
+  <si>
+    <t>臺灣港務股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 497</t>
+  </si>
+  <si>
+    <t>勞動部勞動力發展署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 635</t>
+  </si>
+  <si>
+    <t>勞動部勞動力發展署技能檢定中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 640</t>
+  </si>
+  <si>
+    <t>勞動部勞動及職業安全衛生研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 655</t>
+  </si>
+  <si>
+    <t>勞動部職業安全衛生署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 638</t>
+  </si>
+  <si>
+    <t>勞動部勞工保險局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 552</t>
+  </si>
+  <si>
+    <t>勞動部勞動基金運用局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 503</t>
+  </si>
+  <si>
+    <t>原住民族委員會原住民族文化發展中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10899</t>
+  </si>
+  <si>
+    <t>行政院原住民族委員會文化園區管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 484</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 429</t>
+  </si>
+  <si>
+    <t>人事處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10892</t>
+  </si>
+  <si>
+    <t>內政部移民署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6558</t>
+  </si>
+  <si>
+    <t>內政部資訊中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10379</t>
+  </si>
+  <si>
+    <t>合作及人民團體司籌備處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10891</t>
+  </si>
+  <si>
+    <t>土地重劃工程處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10885</t>
+  </si>
+  <si>
+    <t>地政司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10886</t>
+  </si>
+  <si>
+    <t>役政署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10647</t>
+  </si>
+  <si>
+    <t>戶政司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10902</t>
+  </si>
+  <si>
+    <t>政風處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10888</t>
+  </si>
+  <si>
+    <t>會計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10890</t>
+  </si>
+  <si>
+    <t>民政司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10695</t>
+  </si>
+  <si>
+    <t>消防署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10894</t>
+  </si>
+  <si>
+    <t>統計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10629</t>
+  </si>
+  <si>
+    <t>總務司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10893</t>
+  </si>
+  <si>
+    <t>警政署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10884</t>
+  </si>
+  <si>
+    <t>秘書室</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10889</t>
+  </si>
+  <si>
+    <t>中央警察大學</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 817</t>
+  </si>
+  <si>
+    <t>內政部國土測繪中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 667</t>
+  </si>
+  <si>
+    <t>內政部空中勤務總隊</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830</t>
+  </si>
+  <si>
+    <t>內政部營建署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 751</t>
+  </si>
+  <si>
+    <t>內政部建築研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 840</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 486</t>
+  </si>
+  <si>
+    <t>臺中榮民總醫院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17910</t>
+  </si>
+  <si>
+    <t>臺北榮民總醫院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19105</t>
+  </si>
+  <si>
+    <t>高雄榮民總醫院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 431</t>
+  </si>
+  <si>
+    <t>國防部參謀本部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6543</t>
+  </si>
+  <si>
+    <t>國防部後備指揮部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 430</t>
+  </si>
+  <si>
+    <t>外交部外交及國際事務學院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 824</t>
+  </si>
+  <si>
+    <t>外交部領事事務局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 506</t>
+  </si>
+  <si>
+    <t>客家委員會客家文化發展中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 961</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 440</t>
+  </si>
+  <si>
+    <t>國家圖書館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 441</t>
+  </si>
+  <si>
+    <t>教育部國際及兩岸教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8173</t>
+  </si>
+  <si>
+    <t>教育部學生事務及特殊教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8195</t>
+  </si>
+  <si>
+    <t>教育部師資培育及藝術教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8193</t>
+  </si>
+  <si>
+    <t>教育部技術及職業教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8191</t>
+  </si>
+  <si>
+    <t>教育部政風處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8198</t>
+  </si>
+  <si>
+    <t>教育部會計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7996</t>
+  </si>
+  <si>
+    <t>教育部法制處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8199</t>
+  </si>
+  <si>
+    <t>教育部終身教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8192</t>
+  </si>
+  <si>
+    <t>教育部統計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8108</t>
+  </si>
+  <si>
+    <t>教育部綜合規劃司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8189</t>
+  </si>
+  <si>
+    <t>教育部資訊及科技教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8194</t>
+  </si>
+  <si>
+    <t>教育部高等教育司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8190</t>
+  </si>
+  <si>
+    <t>國家教育研究院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 747</t>
+  </si>
+  <si>
+    <t>國立教育廣播電臺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 551</t>
+  </si>
+  <si>
+    <t>國立公共資訊圖書館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 724</t>
+  </si>
+  <si>
+    <t>國立海洋生物博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 632</t>
+  </si>
+  <si>
+    <t>國立海洋科技博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 834</t>
+  </si>
+  <si>
+    <t>國立科學工藝博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 687</t>
+  </si>
+  <si>
+    <t>國立自然科學博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 838</t>
+  </si>
+  <si>
+    <t>國立臺灣圖書館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 681</t>
+  </si>
+  <si>
+    <t>國立臺灣科學教育館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 685</t>
+  </si>
+  <si>
+    <t>國立臺灣藝術教育館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 682</t>
+  </si>
+  <si>
+    <t>教育部國民及學前教育署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 731</t>
+  </si>
+  <si>
+    <t>教育部青年發展署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 686</t>
+  </si>
+  <si>
+    <t>教育部體育署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 517</t>
+  </si>
+  <si>
+    <t>國家人權博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28475</t>
+  </si>
+  <si>
+    <t>國立中正紀念堂管理處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11524</t>
+  </si>
+  <si>
+    <t>國立傳統藝術中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11580</t>
+  </si>
+  <si>
+    <t>國立國父紀念館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7509</t>
+  </si>
+  <si>
+    <t>國立彰化生活美學館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11588</t>
+  </si>
+  <si>
+    <t>國立新竹生活美學館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11587</t>
+  </si>
+  <si>
+    <t>國立歷史博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11581</t>
+  </si>
+  <si>
+    <t>國立臺東生活美學館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11589</t>
+  </si>
+  <si>
+    <t>國立臺灣交響樂團</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11584</t>
+  </si>
+  <si>
+    <t>國立臺灣博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11582</t>
+  </si>
+  <si>
+    <t>國立臺灣史前文化博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6426</t>
+  </si>
+  <si>
+    <t>國立臺灣文學館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11545</t>
+  </si>
+  <si>
+    <t>國立臺灣歷史博物館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11585</t>
+  </si>
+  <si>
+    <t>國立臺灣美術館</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11544</t>
+  </si>
+  <si>
+    <t>文化部文化資產局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11546</t>
+  </si>
+  <si>
+    <t>衛武營藝術文化中心籌備處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11586</t>
+  </si>
+  <si>
+    <t>國立臺灣工藝研究發展中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 756</t>
+  </si>
+  <si>
+    <t>文化部影視及流行音樂產業局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 442</t>
+  </si>
+  <si>
+    <t>最高法院檢察署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 719</t>
+  </si>
+  <si>
+    <t>法務部人事處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 693</t>
+  </si>
+  <si>
+    <t>法務部保護司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 697</t>
+  </si>
+  <si>
+    <t>法務部司法官學院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 779</t>
+  </si>
+  <si>
+    <t>法務部國際及兩岸法律司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 706</t>
+  </si>
+  <si>
+    <t>法務部廉政署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 717</t>
+  </si>
+  <si>
+    <t>法務部會計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 698</t>
+  </si>
+  <si>
+    <t>法務部檢察司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 671</t>
+  </si>
+  <si>
+    <t>法務部法制司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 694</t>
+  </si>
+  <si>
+    <t>法務部法律事務司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 794</t>
+  </si>
+  <si>
+    <t>法務部法醫研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 744</t>
+  </si>
+  <si>
+    <t>法務部矯正署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 718</t>
+  </si>
+  <si>
+    <t>法務部矯正署台南第二監獄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10070</t>
+  </si>
+  <si>
+    <t>法務部矯正署基隆看守所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6673</t>
+  </si>
+  <si>
+    <t>法務部矯正署泰源技能訓練所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6664</t>
+  </si>
+  <si>
+    <t>法務部矯正署綠島監獄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6665</t>
+  </si>
+  <si>
+    <t>法務部矯正署臺中看守所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6675</t>
+  </si>
+  <si>
+    <t>法務部矯正署臺南看守所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6643</t>
+  </si>
+  <si>
+    <t>法務部矯正署雲林監獄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6657</t>
+  </si>
+  <si>
+    <t>誠正中學</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6610</t>
+  </si>
+  <si>
+    <t>法務部矯正署雲林第二監獄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 846</t>
+  </si>
+  <si>
+    <t>法務部秘書處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 670</t>
+  </si>
+  <si>
+    <t>法務部統計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 673</t>
+  </si>
+  <si>
+    <t>法務部綜合規劃司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 668</t>
+  </si>
+  <si>
+    <t>法務部行政執行署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720</t>
+  </si>
+  <si>
+    <t>法務部調查局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 649</t>
+  </si>
+  <si>
+    <t>法務部資訊處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 692</t>
+  </si>
+  <si>
+    <t>福建連江地方法院檢察署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 839</t>
+  </si>
+  <si>
+    <t>福建金門地方法院檢察署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 769</t>
+  </si>
+  <si>
+    <t>福建高等法院金門分院檢察署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 753</t>
+  </si>
+  <si>
+    <t>臺灣高等法院檢察署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489</t>
+  </si>
+  <si>
+    <t>科技部南部科學工業園區管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 959</t>
+  </si>
+  <si>
+    <t>科技部新竹科學工業園區管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 952</t>
+  </si>
+  <si>
+    <t>科技部中部科學工業園區管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 443</t>
+  </si>
+  <si>
+    <t>台灣中油股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 950</t>
+  </si>
+  <si>
+    <t>台灣中油股份有限公司石化事業部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 689</t>
+  </si>
+  <si>
+    <t>台灣中油股份有限公司溶劑化學品事業部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 677</t>
+  </si>
+  <si>
+    <t>台灣中油股份有限公司液化石油氣事業部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 715</t>
+  </si>
+  <si>
+    <t>台灣中油股份有限公司油品行銷事業部</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 462</t>
+  </si>
+  <si>
+    <t>經濟部國際合作處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 949</t>
+  </si>
+  <si>
+    <t>台灣電力股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 465</t>
+  </si>
+  <si>
+    <t>台灣自來水股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 464</t>
+  </si>
+  <si>
+    <t>技術處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 459</t>
+  </si>
+  <si>
+    <t>經濟部投資業務處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 461</t>
+  </si>
+  <si>
+    <t>經濟部中央地質調查所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 447</t>
+  </si>
+  <si>
+    <t>經濟部中小企業處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 446</t>
+  </si>
+  <si>
+    <t>經濟部加工出口區管理處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448</t>
+  </si>
+  <si>
+    <t>經濟部商業司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 733</t>
+  </si>
+  <si>
+    <t>經濟部國營事業委員會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 450</t>
+  </si>
+  <si>
+    <t>經濟部國際貿易局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444</t>
+  </si>
+  <si>
+    <t>經濟部專業人員研究中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 610</t>
+  </si>
+  <si>
+    <t>經濟部工業局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 445</t>
+  </si>
+  <si>
+    <t>經濟部投資審議委員會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 449</t>
+  </si>
+  <si>
+    <t>經濟部智慧財產局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 453</t>
+  </si>
+  <si>
+    <t>經濟部標準檢驗局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 452</t>
+  </si>
+  <si>
+    <t>經濟部水利署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 455</t>
+  </si>
+  <si>
+    <t>經濟部礦務局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 454</t>
+  </si>
+  <si>
+    <t>經濟部能源局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 458</t>
+  </si>
+  <si>
+    <t>經濟部貿易調查委員會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 451</t>
+  </si>
+  <si>
+    <t>臺灣糖業股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 456</t>
+  </si>
+  <si>
+    <t>訴願委員會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 460</t>
+  </si>
+  <si>
+    <t>臺灣省政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 518</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 519</t>
+  </si>
+  <si>
+    <t>行政院人事行政總處公務人力發展學院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20233</t>
+  </si>
+  <si>
+    <t>行政院人事行政總處公務人力發展中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 829</t>
+  </si>
+  <si>
+    <t>行政院人事行政總處地方行政研習中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 825</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 488</t>
+  </si>
+  <si>
+    <t>行政院原子能委員會放射性物料管理局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10591</t>
+  </si>
+  <si>
+    <t>行政院原子能委員會輻射偵測中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10785</t>
+  </si>
+  <si>
+    <t>行政院原子能委員會核能研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 509</t>
+  </si>
+  <si>
+    <t>衛生福利部中醫藥司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19433</t>
+  </si>
+  <si>
+    <t>衛生福利部保護服務司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19207</t>
+  </si>
+  <si>
+    <t>衛生福利部全民健康保險會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19437</t>
+  </si>
+  <si>
+    <t>衛生福利部全民健康保險爭議審議會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19439</t>
+  </si>
+  <si>
+    <t>衛生福利部國民年金監理會</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19438</t>
+  </si>
+  <si>
+    <t>衛生福利部心理及口腔健康司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19432</t>
+  </si>
+  <si>
+    <t>衛生福利部會計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7088</t>
+  </si>
+  <si>
+    <t>衛生福利部統計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19434</t>
+  </si>
+  <si>
+    <t>衛生福利部綜合規劃司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19428</t>
+  </si>
+  <si>
+    <t>衛生福利部護理及健康照護司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19430</t>
+  </si>
+  <si>
+    <t>衛生福利部資訊處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19435</t>
+  </si>
+  <si>
+    <t>衛生福利部醫事司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19431</t>
+  </si>
+  <si>
+    <t>衛生福利部中央健康保險署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 514</t>
+  </si>
+  <si>
+    <t>衛生福利部國家中醫藥研究所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 831</t>
+  </si>
+  <si>
+    <t>衛生福利部國民健康署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 515</t>
+  </si>
+  <si>
+    <t>衛生福利部國民健康署主計室</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7334</t>
+  </si>
+  <si>
+    <t>衛生福利部疾病管制署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 513</t>
+  </si>
+  <si>
+    <t>衛生福利部社會及家庭署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 823</t>
+  </si>
+  <si>
+    <t>衛生福利部社會救助及社工司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 510</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 432</t>
+  </si>
+  <si>
+    <t>臺灣菸酒股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6593</t>
+  </si>
+  <si>
+    <t>財政部會計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6703</t>
+  </si>
+  <si>
+    <t>中國輸出入銀行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 740</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 828</t>
+  </si>
+  <si>
+    <t>土銀保險經紀人股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7760</t>
+  </si>
+  <si>
+    <t>臺灣金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 803</t>
+  </si>
+  <si>
+    <t>臺灣銀行股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6813</t>
+  </si>
+  <si>
+    <t>臺銀綜合保險經紀人股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8015</t>
+  </si>
+  <si>
+    <t>臺銀人壽保險股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6451</t>
+  </si>
+  <si>
+    <t>臺銀綜合證券股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6511</t>
+  </si>
+  <si>
+    <t>財政部中區國稅局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 663</t>
+  </si>
+  <si>
+    <t>財政部北區國稅局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 662</t>
+  </si>
+  <si>
+    <t>財政部南區國稅局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 437</t>
+  </si>
+  <si>
+    <t>財政部印刷廠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 850</t>
+  </si>
+  <si>
+    <t>財政部臺北國稅局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 661</t>
+  </si>
+  <si>
+    <t>財政部國庫署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 433</t>
+  </si>
+  <si>
+    <t>財政部國有財產署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 435</t>
+  </si>
+  <si>
+    <t>財政部推動促參司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 669</t>
+  </si>
+  <si>
+    <t>財政部法制處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 439</t>
+  </si>
+  <si>
+    <t>財政部統計處</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 434</t>
+  </si>
+  <si>
+    <t>財政部財政人員訓練所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 665</t>
+  </si>
+  <si>
+    <t>財政部財政資訊中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 438</t>
+  </si>
+  <si>
+    <t>財政部賦稅署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 660</t>
+  </si>
+  <si>
+    <t>財政部關務署</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 436</t>
+  </si>
+  <si>
+    <t>財政部高雄國稅局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 507</t>
+  </si>
+  <si>
+    <t>中央存款保險股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 714</t>
+  </si>
+  <si>
+    <t>金融監督管理委員會保險局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 716</t>
+  </si>
+  <si>
+    <t>金融監督管理委員會檢查局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 702</t>
+  </si>
+  <si>
+    <t>金融監督管理委員會證券期貨局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 712</t>
+  </si>
+  <si>
+    <t>金融監督管理委員會銀行局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 705</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22011</t>
+  </si>
+  <si>
+    <t>南投縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22014</t>
+  </si>
+  <si>
+    <t>嘉義市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 595</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22013</t>
+  </si>
+  <si>
+    <t>嘉義縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 845</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22001</t>
+  </si>
+  <si>
+    <t>基隆市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22020</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22019</t>
+  </si>
+  <si>
+    <t>屏東縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22010</t>
+  </si>
+  <si>
+    <t>彰化縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7759</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22026</t>
+  </si>
+  <si>
+    <t>新北市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9497</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22006</t>
+  </si>
+  <si>
+    <t>新竹市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11565</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22005</t>
+  </si>
+  <si>
+    <t>新竹縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22030</t>
+  </si>
+  <si>
+    <t>桃園市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22023</t>
+  </si>
+  <si>
+    <t>澎湖縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22027</t>
+  </si>
+  <si>
+    <t>臺中市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22003</t>
+  </si>
+  <si>
+    <t>臺北市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18772</t>
+  </si>
+  <si>
+    <t>臺南市</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22028</t>
+  </si>
+  <si>
+    <t>臺南市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 520</t>
+  </si>
+  <si>
+    <t>臺東縣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22022</t>
+  </si>
+  <si>
+    <t>臺東縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22021</t>
+  </si>
+  <si>
+    <t>花蓮縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22007</t>
+  </si>
+  <si>
+    <t>苗栗縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 954</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22025</t>
+  </si>
+  <si>
+    <t>連江縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22024</t>
+  </si>
+  <si>
+    <t>金門縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22012</t>
+  </si>
+  <si>
+    <t>雲林縣政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7469</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22029</t>
+  </si>
+  <si>
+    <t>高雄市政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 591</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +2951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1135,6 +2987,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1420,11 +3275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6:H42"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15.6"/>
@@ -2657,7 +4512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15.6"/>
@@ -3213,4 +5068,3641 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId40"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F349"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data-portal-list.xlsx
+++ b/data-portal-list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="30720" windowHeight="13524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1728" windowWidth="30720" windowHeight="13524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="中央" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="972">
   <si>
     <t>OID</t>
   </si>
@@ -2882,6 +2882,66 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>https://data.moi.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://www.boca.gov.tw/lp-opendata-All-1.html</t>
+  </si>
+  <si>
+    <t>外交部_領事事務局</t>
+  </si>
+  <si>
+    <t>https://ahonline.drnh.gov.tw/index.php?act=Archive</t>
+  </si>
+  <si>
+    <t>國史館_台灣文獻館</t>
+  </si>
+  <si>
+    <t>http://ds3.th.gov.tw/ds3</t>
+  </si>
+  <si>
+    <t>https://www.th.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://data.coa.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://opendata.epa.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://opendata.culture.tw/</t>
+  </si>
+  <si>
+    <t>http://theme.npm.edu.tw/opendata/</t>
+  </si>
+  <si>
+    <t>https://data.gov.tw/</t>
+  </si>
+  <si>
+    <t>http://data.hakka.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://www.vac.gov.tw/lp-opendata-All-1-1-40.html</t>
+  </si>
+  <si>
+    <t>https://www.ocac.gov.tw/OCAC/Pages/List.aspx?nodeid=353</t>
+  </si>
+  <si>
+    <t>https://www.cga.gov.tw/GipOpen/wSite/lp?ctNode=8871&amp;mp=9996</t>
+  </si>
+  <si>
+    <t>https://web3.dgpa.gov.tw/WANT03FRONT/AP/WANTF00003.aspx</t>
+  </si>
+  <si>
+    <t>https://www.aec.gov.tw/%E8%B3%87%E8%A8%8A%E5%85%AC%E9%96%8B/%E9%96%8B%E6%94%BE%E8%B3%87%E6%96%99-Open-Data--219_2015.html</t>
+  </si>
+  <si>
+    <t>http://db.cec.gov.tw/</t>
+  </si>
+  <si>
+    <t>https://www.ncc.gov.tw/chinese/opendata.aspx</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +3011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2992,6 +3052,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3273,23 +3334,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="50.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56" style="3" customWidth="1"/>
     <col min="7" max="7" width="56.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="8" customWidth="1"/>
@@ -3368,6 +3429,9 @@
       <c r="D4" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>955</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>185</v>
       </c>
@@ -3380,805 +3444,841 @@
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I6" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:9">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>21018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="8">
-        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="8">
-        <v>141</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I9" s="8">
-        <v>363</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2156</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I11" s="8">
-        <v>961</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I12" s="8">
-        <v>2040</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I13" s="8">
-        <v>2447</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I14" s="8">
-        <v>1379</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I15" s="8">
-        <v>567</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I16" s="8">
-        <v>1159</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I17" s="8">
-        <v>1318</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I18" s="8">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I19" s="8">
-        <v>360</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>960</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I20" s="8">
-        <v>365</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I21" s="8">
-        <v>512</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I22" s="8">
-        <v>216</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>963</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I23" s="8">
-        <v>1410</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I24" s="8">
-        <v>115</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I25" s="8">
-        <v>131</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I26" s="8">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>966</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I27" s="8">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>965</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I28" s="8">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I29" s="8">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>964</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I30" s="8">
-        <v>1245</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I31" s="8">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I32" s="8">
-        <v>261</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I33" s="8">
-        <v>107</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="C34" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I34" s="8">
-        <v>121</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I35" s="8">
         <v>107</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I35" s="8">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I36" s="8">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I37" s="8">
-        <v>212</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" s="4" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I38" s="8">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="C39" s="4" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>266</v>
+        <v>109</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>971</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I39" s="8">
-        <v>3</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="C40" s="4" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I40" s="8">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="C41" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I41" s="8">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="C42" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I42" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="C43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I43" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="C44" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I44" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="4" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I45" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="4" t="s">
+    <row r="46" spans="2:9">
+      <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H46" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I46" s="8">
         <v>1821</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I45" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="I46" s="11">
-        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I47" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I48" s="11">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I49" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I50" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I51" s="11">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I52" s="11">
         <v>16</v>
@@ -4187,203 +4287,233 @@
     <row r="53" spans="2:9">
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I53" s="11">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I54" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I55" s="11">
-        <v>741</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="I56" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I57" s="11">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H58" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I58" s="11">
         <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="I57" s="8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="C58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I58" s="8">
-        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I59" s="8">
-        <v>207</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="C60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>115</v>
+        <v>43</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I60" s="8">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="C61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>115</v>
+      <c r="B61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I61" s="8">
-        <v>32</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="C62" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I62" s="8">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="C63" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G63" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="C64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="C65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H65" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I65" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="3" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H66" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I66" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
-      <c r="G65" s="3" t="s">
+    <row r="67" spans="2:9">
+      <c r="G67" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4392,116 +4522,117 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D58" r:id="rId19"/>
-    <hyperlink ref="D59" r:id="rId20"/>
-    <hyperlink ref="D57" r:id="rId21"/>
-    <hyperlink ref="D44" r:id="rId22"/>
-    <hyperlink ref="D43" r:id="rId23"/>
-    <hyperlink ref="D37" r:id="rId24"/>
-    <hyperlink ref="D36" r:id="rId25"/>
-    <hyperlink ref="D35" r:id="rId26"/>
-    <hyperlink ref="D34" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D32" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D30" r:id="rId31"/>
-    <hyperlink ref="D29" r:id="rId32"/>
-    <hyperlink ref="D28" r:id="rId33"/>
-    <hyperlink ref="D27" r:id="rId34"/>
-    <hyperlink ref="D26" r:id="rId35"/>
-    <hyperlink ref="D25" r:id="rId36"/>
-    <hyperlink ref="D24" r:id="rId37"/>
-    <hyperlink ref="D23" r:id="rId38"/>
-    <hyperlink ref="D22" r:id="rId39"/>
-    <hyperlink ref="D21" r:id="rId40"/>
-    <hyperlink ref="D20" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="D40" r:id="rId43"/>
-    <hyperlink ref="D42" r:id="rId44"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D60" r:id="rId19"/>
+    <hyperlink ref="D61" r:id="rId20"/>
+    <hyperlink ref="D59" r:id="rId21"/>
+    <hyperlink ref="D46" r:id="rId22"/>
+    <hyperlink ref="D45" r:id="rId23"/>
+    <hyperlink ref="D39" r:id="rId24"/>
+    <hyperlink ref="D38" r:id="rId25"/>
+    <hyperlink ref="D37" r:id="rId26"/>
+    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="D35" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D33" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D31" r:id="rId32"/>
+    <hyperlink ref="D30" r:id="rId33"/>
+    <hyperlink ref="D29" r:id="rId34"/>
+    <hyperlink ref="D28" r:id="rId35"/>
+    <hyperlink ref="D27" r:id="rId36"/>
+    <hyperlink ref="D26" r:id="rId37"/>
+    <hyperlink ref="D25" r:id="rId38"/>
+    <hyperlink ref="D24" r:id="rId39"/>
+    <hyperlink ref="D23" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="F45" r:id="rId42"/>
+    <hyperlink ref="D42" r:id="rId43"/>
+    <hyperlink ref="D44" r:id="rId44"/>
     <hyperlink ref="G2" r:id="rId45"/>
     <hyperlink ref="G3" r:id="rId46" display="https://data.gov.tw/datasets/search?qs=dtid:800 "/>
     <hyperlink ref="G4" r:id="rId47" display="https://data.gov.tw/datasets/search?qs=dtid:723 "/>
-    <hyperlink ref="G5" r:id="rId48" display="https://data.gov.tw/datasets/search?qs=dtid:739 "/>
-    <hyperlink ref="G6" r:id="rId49" display="https://data.gov.tw/datasets/search?qs=dtid:428 "/>
-    <hyperlink ref="G7" r:id="rId50" display="https://data.gov.tw/datasets/search?qs=dtid:429 "/>
-    <hyperlink ref="G8" r:id="rId51" display="https://data.gov.tw/datasets/search?qs=dtid:430 "/>
-    <hyperlink ref="G9" r:id="rId52" display="https://data.gov.tw/datasets/search?qs=dtid:431 "/>
-    <hyperlink ref="G10" r:id="rId53" display="https://data.gov.tw/datasets/search?qs=dtid:432 "/>
-    <hyperlink ref="G11" r:id="rId54" display="https://data.gov.tw/datasets/search?qs=dtid:440 "/>
-    <hyperlink ref="G12" r:id="rId55" display="https://data.gov.tw/datasets/search?qs=dtid:442 "/>
-    <hyperlink ref="G13" r:id="rId56" display="https://data.gov.tw/datasets/search?qs=dtid:443 "/>
-    <hyperlink ref="G14" r:id="rId57" display="https://data.gov.tw/datasets/search?qs=dtid:466 "/>
-    <hyperlink ref="G15" r:id="rId58" display="https://data.gov.tw/datasets/search?qs=dtid:497 "/>
-    <hyperlink ref="G16" r:id="rId59" display="https://data.gov.tw/datasets/search?qs=dtid:493 "/>
-    <hyperlink ref="G17" r:id="rId60" display="https://data.gov.tw/datasets/search?qs=dtid:509 "/>
-    <hyperlink ref="G18" r:id="rId61" display="https://data.gov.tw/datasets/search?qs=dtid:498 "/>
-    <hyperlink ref="G19" r:id="rId62" display="https://data.gov.tw/datasets/search?qs=dtid:517 "/>
-    <hyperlink ref="G20" r:id="rId63" display="https://data.gov.tw/datasets/search?qs=dtid:489 "/>
-    <hyperlink ref="G21" r:id="rId64" display="https://data.gov.tw/datasets/search?qs=dtid:491 "/>
-    <hyperlink ref="G22" r:id="rId65" display="https://data.gov.tw/datasets/search?qs=dtid:499 "/>
-    <hyperlink ref="G23" r:id="rId66" display="https://data.gov.tw/datasets/search?qs=dtid:507 "/>
-    <hyperlink ref="G24" r:id="rId67" display="https://data.gov.tw/datasets/search?qs=dtid:504 "/>
-    <hyperlink ref="G25" r:id="rId68" display="https://data.gov.tw/datasets/search?qs=dtid:484 "/>
-    <hyperlink ref="G26" r:id="rId69" display="https://data.gov.tw/datasets/search?qs=dtid:486 "/>
-    <hyperlink ref="G27" r:id="rId70" display="https://data.gov.tw/datasets/search?qs=dtid:503 "/>
-    <hyperlink ref="G28" r:id="rId71" display="https://data.gov.tw/datasets/search?qs=dtid:506 "/>
-    <hyperlink ref="G29" r:id="rId72" display="https://data.gov.tw/datasets/search?qs=dtid:502 "/>
-    <hyperlink ref="G30" r:id="rId73" display="https://data.gov.tw/datasets/search?qs=dtid:518 "/>
-    <hyperlink ref="G31" r:id="rId74" display="https://data.gov.tw/datasets/search?qs=dtid:519 "/>
-    <hyperlink ref="G32" r:id="rId75" display="https://data.gov.tw/datasets/search?qs=dtid:495 "/>
-    <hyperlink ref="G33" r:id="rId76" display="https://data.gov.tw/datasets/search?qs=dtid:487 "/>
-    <hyperlink ref="G34" r:id="rId77" display="https://data.gov.tw/datasets/search?qs=dtid:488 "/>
-    <hyperlink ref="G35" r:id="rId78" display="https://data.gov.tw/datasets/search?qs=dtid:496 "/>
-    <hyperlink ref="G36" r:id="rId79" display="https://data.gov.tw/datasets/search?qs=dtid:500 "/>
-    <hyperlink ref="G37" r:id="rId80" display="https://data.gov.tw/datasets/search?qs=dtid:508 "/>
-    <hyperlink ref="G38" r:id="rId81" display="https://data.gov.tw/datasets/search?qs=dtid:737 "/>
-    <hyperlink ref="G39" r:id="rId82" display="https://data.gov.tw/datasets/search?qs=dtid:16720 "/>
-    <hyperlink ref="G40" r:id="rId83" display="https://data.gov.tw/datasets/search?qs=dtid:847 "/>
-    <hyperlink ref="G41" r:id="rId84" display="https://data.gov.tw/datasets/search?qs=dtid:807 "/>
-    <hyperlink ref="G42" r:id="rId85" display="https://data.gov.tw/datasets/search?qs=dtid:505 "/>
-    <hyperlink ref="G43" r:id="rId86" display="https://data.gov.tw/datasets/search?qs=dtid:797 "/>
-    <hyperlink ref="G44" r:id="rId87" display="https://data.gov.tw/datasets/search?qs=dtid:748 "/>
-    <hyperlink ref="G45" r:id="rId88" display="https://data.gov.tw/datasets/search?qs=dtid:832 "/>
-    <hyperlink ref="G46" r:id="rId89" display="https://data.gov.tw/datasets/search?qs=dtid:798 "/>
-    <hyperlink ref="G47" r:id="rId90" display="https://data.gov.tw/datasets/search?qs=dtid:806 "/>
-    <hyperlink ref="G48" r:id="rId91" display="https://data.gov.tw/datasets/search?qs=dtid:772 "/>
-    <hyperlink ref="G49" r:id="rId92" display="https://data.gov.tw/datasets/search?qs=dtid:837 "/>
-    <hyperlink ref="G50" r:id="rId93" display="https://data.gov.tw/datasets/search?qs=dtid:821 "/>
-    <hyperlink ref="G51" r:id="rId94" display="https://data.gov.tw/datasets/search?qs=dtid:827 "/>
-    <hyperlink ref="G52" r:id="rId95" display="https://data.gov.tw/datasets/search?qs=dtid:818 "/>
-    <hyperlink ref="G53" r:id="rId96" display="https://data.gov.tw/datasets/search?qs=dtid:770 "/>
-    <hyperlink ref="G54" r:id="rId97" display="https://data.gov.tw/datasets/search?qs=dtid:802 "/>
-    <hyperlink ref="G55" r:id="rId98" display="https://data.gov.tw/datasets/search?qs=dtid:786 "/>
-    <hyperlink ref="G56" r:id="rId99" display="https://data.gov.tw/datasets/search?qs=dtid:773 "/>
-    <hyperlink ref="G57" r:id="rId100" display="https://data.gov.tw/datasets/search?qs=dtid:736 "/>
-    <hyperlink ref="G58" r:id="rId101" display="https://data.gov.tw/datasets/search?qs=dtid:691 "/>
-    <hyperlink ref="G59" r:id="rId102" display="https://data.gov.tw/datasets/search?qs=dtid:729 "/>
-    <hyperlink ref="G60" r:id="rId103" display="https://data.gov.tw/datasets/search?qs=dtid:826 "/>
-    <hyperlink ref="G61" r:id="rId104" display="https://data.gov.tw/datasets/search?qs=dtid:820 "/>
-    <hyperlink ref="G62" r:id="rId105" display="https://data.gov.tw/datasets/search?qs=dtid:842 "/>
-    <hyperlink ref="G63" r:id="rId106" display="https://data.gov.tw/datasets/search?qs=dtid:728 "/>
-    <hyperlink ref="G64" r:id="rId107"/>
-    <hyperlink ref="D64" r:id="rId108"/>
+    <hyperlink ref="G6" r:id="rId48" display="https://data.gov.tw/datasets/search?qs=dtid:739 "/>
+    <hyperlink ref="G7" r:id="rId49" display="https://data.gov.tw/datasets/search?qs=dtid:428 "/>
+    <hyperlink ref="G8" r:id="rId50" display="https://data.gov.tw/datasets/search?qs=dtid:429 "/>
+    <hyperlink ref="G9" r:id="rId51" display="https://data.gov.tw/datasets/search?qs=dtid:430 "/>
+    <hyperlink ref="G11" r:id="rId52" display="https://data.gov.tw/datasets/search?qs=dtid:431 "/>
+    <hyperlink ref="G12" r:id="rId53" display="https://data.gov.tw/datasets/search?qs=dtid:432 "/>
+    <hyperlink ref="G13" r:id="rId54" display="https://data.gov.tw/datasets/search?qs=dtid:440 "/>
+    <hyperlink ref="G14" r:id="rId55" display="https://data.gov.tw/datasets/search?qs=dtid:442 "/>
+    <hyperlink ref="G15" r:id="rId56" display="https://data.gov.tw/datasets/search?qs=dtid:443 "/>
+    <hyperlink ref="G16" r:id="rId57" display="https://data.gov.tw/datasets/search?qs=dtid:466 "/>
+    <hyperlink ref="G17" r:id="rId58" display="https://data.gov.tw/datasets/search?qs=dtid:497 "/>
+    <hyperlink ref="G18" r:id="rId59" display="https://data.gov.tw/datasets/search?qs=dtid:493 "/>
+    <hyperlink ref="G19" r:id="rId60" display="https://data.gov.tw/datasets/search?qs=dtid:509 "/>
+    <hyperlink ref="G20" r:id="rId61" display="https://data.gov.tw/datasets/search?qs=dtid:498 "/>
+    <hyperlink ref="G21" r:id="rId62" display="https://data.gov.tw/datasets/search?qs=dtid:517 "/>
+    <hyperlink ref="G22" r:id="rId63" display="https://data.gov.tw/datasets/search?qs=dtid:489 "/>
+    <hyperlink ref="G23" r:id="rId64" display="https://data.gov.tw/datasets/search?qs=dtid:491 "/>
+    <hyperlink ref="G24" r:id="rId65" display="https://data.gov.tw/datasets/search?qs=dtid:499 "/>
+    <hyperlink ref="G25" r:id="rId66" display="https://data.gov.tw/datasets/search?qs=dtid:507 "/>
+    <hyperlink ref="G26" r:id="rId67" display="https://data.gov.tw/datasets/search?qs=dtid:504 "/>
+    <hyperlink ref="G27" r:id="rId68" display="https://data.gov.tw/datasets/search?qs=dtid:484 "/>
+    <hyperlink ref="G28" r:id="rId69" display="https://data.gov.tw/datasets/search?qs=dtid:486 "/>
+    <hyperlink ref="G29" r:id="rId70" display="https://data.gov.tw/datasets/search?qs=dtid:503 "/>
+    <hyperlink ref="G30" r:id="rId71" display="https://data.gov.tw/datasets/search?qs=dtid:506 "/>
+    <hyperlink ref="G31" r:id="rId72" display="https://data.gov.tw/datasets/search?qs=dtid:502 "/>
+    <hyperlink ref="G32" r:id="rId73" display="https://data.gov.tw/datasets/search?qs=dtid:518 "/>
+    <hyperlink ref="G33" r:id="rId74" display="https://data.gov.tw/datasets/search?qs=dtid:519 "/>
+    <hyperlink ref="G34" r:id="rId75" display="https://data.gov.tw/datasets/search?qs=dtid:495 "/>
+    <hyperlink ref="G35" r:id="rId76" display="https://data.gov.tw/datasets/search?qs=dtid:487 "/>
+    <hyperlink ref="G36" r:id="rId77" display="https://data.gov.tw/datasets/search?qs=dtid:488 "/>
+    <hyperlink ref="G37" r:id="rId78" display="https://data.gov.tw/datasets/search?qs=dtid:496 "/>
+    <hyperlink ref="G38" r:id="rId79" display="https://data.gov.tw/datasets/search?qs=dtid:500 "/>
+    <hyperlink ref="G39" r:id="rId80" display="https://data.gov.tw/datasets/search?qs=dtid:508 "/>
+    <hyperlink ref="G40" r:id="rId81" display="https://data.gov.tw/datasets/search?qs=dtid:737 "/>
+    <hyperlink ref="G41" r:id="rId82" display="https://data.gov.tw/datasets/search?qs=dtid:16720 "/>
+    <hyperlink ref="G42" r:id="rId83" display="https://data.gov.tw/datasets/search?qs=dtid:847 "/>
+    <hyperlink ref="G43" r:id="rId84" display="https://data.gov.tw/datasets/search?qs=dtid:807 "/>
+    <hyperlink ref="G44" r:id="rId85" display="https://data.gov.tw/datasets/search?qs=dtid:505 "/>
+    <hyperlink ref="G45" r:id="rId86" display="https://data.gov.tw/datasets/search?qs=dtid:797 "/>
+    <hyperlink ref="G46" r:id="rId87" display="https://data.gov.tw/datasets/search?qs=dtid:748 "/>
+    <hyperlink ref="G47" r:id="rId88" display="https://data.gov.tw/datasets/search?qs=dtid:832 "/>
+    <hyperlink ref="G48" r:id="rId89" display="https://data.gov.tw/datasets/search?qs=dtid:798 "/>
+    <hyperlink ref="G49" r:id="rId90" display="https://data.gov.tw/datasets/search?qs=dtid:806 "/>
+    <hyperlink ref="G50" r:id="rId91" display="https://data.gov.tw/datasets/search?qs=dtid:772 "/>
+    <hyperlink ref="G51" r:id="rId92" display="https://data.gov.tw/datasets/search?qs=dtid:837 "/>
+    <hyperlink ref="G52" r:id="rId93" display="https://data.gov.tw/datasets/search?qs=dtid:821 "/>
+    <hyperlink ref="G53" r:id="rId94" display="https://data.gov.tw/datasets/search?qs=dtid:827 "/>
+    <hyperlink ref="G54" r:id="rId95" display="https://data.gov.tw/datasets/search?qs=dtid:818 "/>
+    <hyperlink ref="G55" r:id="rId96" display="https://data.gov.tw/datasets/search?qs=dtid:770 "/>
+    <hyperlink ref="G56" r:id="rId97" display="https://data.gov.tw/datasets/search?qs=dtid:802 "/>
+    <hyperlink ref="G57" r:id="rId98" display="https://data.gov.tw/datasets/search?qs=dtid:786 "/>
+    <hyperlink ref="G58" r:id="rId99" display="https://data.gov.tw/datasets/search?qs=dtid:773 "/>
+    <hyperlink ref="G59" r:id="rId100" display="https://data.gov.tw/datasets/search?qs=dtid:736 "/>
+    <hyperlink ref="G60" r:id="rId101" display="https://data.gov.tw/datasets/search?qs=dtid:691 "/>
+    <hyperlink ref="G61" r:id="rId102" display="https://data.gov.tw/datasets/search?qs=dtid:729 "/>
+    <hyperlink ref="G62" r:id="rId103" display="https://data.gov.tw/datasets/search?qs=dtid:826 "/>
+    <hyperlink ref="G63" r:id="rId104" display="https://data.gov.tw/datasets/search?qs=dtid:820 "/>
+    <hyperlink ref="G64" r:id="rId105" display="https://data.gov.tw/datasets/search?qs=dtid:842 "/>
+    <hyperlink ref="G65" r:id="rId106" display="https://data.gov.tw/datasets/search?qs=dtid:728 "/>
+    <hyperlink ref="G66" r:id="rId107"/>
+    <hyperlink ref="D66" r:id="rId108"/>
+    <hyperlink ref="F5" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId109"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId110"/>
   <ignoredErrors>
-    <ignoredError sqref="H3:H64" numberStoredAsText="1"/>
+    <ignoredError sqref="H11:H66 H6:H9 H3:H4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4512,7 +4643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15.6"/>
@@ -5075,8 +5206,8 @@
   <dimension ref="A1:F349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/data-portal-list.xlsx
+++ b/data-portal-list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1728" windowWidth="30720" windowHeight="13524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2304" windowWidth="30720" windowHeight="13524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中央" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="974">
   <si>
     <t>OID</t>
   </si>
@@ -2942,6 +2942,12 @@
   </si>
   <si>
     <t>https://www.ncc.gov.tw/chinese/opendata.aspx</t>
+  </si>
+  <si>
+    <t>04.09</t>
+  </si>
+  <si>
+    <t>03.20</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3053,6 +3059,15 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4639,11 +4654,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15.6"/>
@@ -4653,13 +4670,14 @@
     <col min="4" max="4" width="18.77734375" style="3"/>
     <col min="5" max="5" width="48.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="18.77734375" style="3"/>
+    <col min="7" max="7" width="23.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4684,17 +4702,21 @@
       <c r="H1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="I1" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
@@ -4708,14 +4730,17 @@
       <c r="G3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="15" t="s">
         <v>174</v>
       </c>
       <c r="I3" s="8">
         <v>1039</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="8">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
@@ -4735,8 +4760,11 @@
       <c r="I4" s="8">
         <v>2549</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="8">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
@@ -4756,8 +4784,11 @@
       <c r="I5" s="8">
         <v>1438</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="8">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4777,8 +4808,11 @@
       <c r="I6" s="8">
         <v>1408</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="8">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
@@ -4798,8 +4832,11 @@
       <c r="I7" s="8">
         <v>504</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
@@ -4819,8 +4856,11 @@
       <c r="I8" s="8">
         <v>710</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +4868,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
@@ -4848,8 +4888,11 @@
       <c r="I10" s="8">
         <v>346</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" s="4" t="s">
         <v>56</v>
       </c>
@@ -4866,8 +4909,11 @@
       <c r="I11" s="8">
         <v>688</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
@@ -4887,8 +4933,11 @@
       <c r="I12" s="8">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
@@ -4905,8 +4954,11 @@
       <c r="I13" s="8">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
@@ -4926,8 +4978,11 @@
       <c r="I14" s="8">
         <v>653</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
@@ -4944,8 +4999,11 @@
       <c r="I15" s="8">
         <v>867</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
@@ -4965,8 +5023,11 @@
       <c r="I16" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="J16" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
@@ -4986,8 +5047,11 @@
       <c r="I17" s="8">
         <v>290</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
@@ -5004,8 +5068,11 @@
       <c r="I18" s="8">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="J18" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="C19" s="4" t="s">
         <v>64</v>
       </c>
@@ -5025,8 +5092,11 @@
       <c r="I19" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="J19" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
@@ -5046,8 +5116,11 @@
       <c r="I20" s="8">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="J20" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
@@ -5064,8 +5137,11 @@
       <c r="I21" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="J21" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
@@ -5085,8 +5161,11 @@
       <c r="I22" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
         <v>142</v>
       </c>
@@ -5094,7 +5173,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:10">
       <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
@@ -5111,8 +5190,11 @@
       <c r="I24" s="8">
         <v>404</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="J24" s="8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
@@ -5132,8 +5214,11 @@
       <c r="I25" s="8">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="J25" s="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -5151,6 +5236,9 @@
         <v>162</v>
       </c>
       <c r="I26" s="8">
+        <v>313</v>
+      </c>
+      <c r="J26" s="8">
         <v>313</v>
       </c>
     </row>
@@ -5195,9 +5283,10 @@
     <hyperlink ref="G25" r:id="rId37"/>
     <hyperlink ref="G26" r:id="rId38"/>
     <hyperlink ref="H13" r:id="rId39"/>
+    <hyperlink ref="H3" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5205,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
